--- a/chargeIncidentsPerHourOfDay.xlsx
+++ b/chargeIncidentsPerHourOfDay.xlsx
@@ -422,52 +422,52 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>154</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>155</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>129</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>113</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>118</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>93</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>68</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>86</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>64</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>7</c:v>
@@ -799,52 +799,52 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>154</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>155</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>129</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>113</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>118</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>93</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>68</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>86</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>64</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>7</c:v>
@@ -2555,7 +2555,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,7 +2616,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">

--- a/chargeIncidentsPerHourOfDay.xlsx
+++ b/chargeIncidentsPerHourOfDay.xlsx
@@ -404,7 +404,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -413,61 +413,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>141</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>156</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>116</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>126</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>96</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>65</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>78</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>69</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>78</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>87</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>65</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>7</c:v>
@@ -781,7 +781,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -790,61 +790,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>141</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>156</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>112</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>116</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>126</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>96</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>65</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>78</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>66</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>69</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>78</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>87</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>65</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>7</c:v>
@@ -2555,7 +2555,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">

--- a/chargeIncidentsPerHourOfDay.xlsx
+++ b/chargeIncidentsPerHourOfDay.xlsx
@@ -422,52 +422,52 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>149</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>173</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>147</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>119</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>122</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>104</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>69</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>83</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>92</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>71</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>7</c:v>
@@ -799,52 +799,52 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>149</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>168</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>173</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>147</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>119</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>122</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>104</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>69</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>83</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>92</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>71</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>7</c:v>
@@ -2555,7 +2555,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B24"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,7 +2616,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">

--- a/chargeIncidentsPerHourOfDay.xlsx
+++ b/chargeIncidentsPerHourOfDay.xlsx
@@ -404,7 +404,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -413,61 +413,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>77</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>88</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>97</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>75</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>7</c:v>
@@ -781,7 +781,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -790,61 +790,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>77</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>88</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>97</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>75</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>7</c:v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">

--- a/chargeIncidentsPerHourOfDay.xlsx
+++ b/chargeIncidentsPerHourOfDay.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14595"/>
+    <workbookView xWindow="1005" yWindow="0" windowWidth="28800" windowHeight="14595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -413,64 +413,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>164</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>190</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>174</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>142</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>144</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>152</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>119</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>84</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>86</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>96</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>107</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>85</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7</c:v>
@@ -781,7 +781,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -790,64 +790,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>164</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>190</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>174</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>142</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>144</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>152</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>119</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>84</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>86</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>96</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>107</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>85</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7</c:v>
@@ -2555,7 +2555,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B1" sqref="B1:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2608,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>91</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2624,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>164</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>190</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>200</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2648,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>174</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>142</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>144</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>152</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2680,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>119</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,7 +2688,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2696,7 +2696,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2704,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2712,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2736,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2744,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
